--- a/media/supported_keras.xlsx
+++ b/media/supported_keras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Profiles\MobilintCI\Documents\Compiler_Suite_Guide\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B44EDB4-9E4C-4126-AA1F-7920A203011B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE6976-5C5A-45C7-9024-D0289BD6FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>API Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only group=1 or Depthwise Conv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Only training=False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,19 +67,6 @@
   </si>
   <si>
     <t>Only alpha=0, max_value=None, threshold=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supported in ASIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unsupported in FPGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supported in ASIC
-Unsupported in FPGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -218,7 +201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,13 +516,13 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,135 +535,119 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/media/supported_keras.xlsx
+++ b/media/supported_keras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE6976-5C5A-45C7-9024-D0289BD6FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82FAB0-7E08-4466-9E6A-1429CEB41FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -46,30 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only training=False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only along channel axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only constant multiplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only inference mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only alpha=0, max_value=None, threshold=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@&lt;link:https://keras.io/api/layers/convolution_layers/convolution2d/;layers.Conv2D&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +119,30 @@
   </si>
   <si>
     <t>@&lt;link:https://keras.io/api/layers/activations/;activations.exponential&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only training=False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only along channel axis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only constant multiplication.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only inference mode.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only channel-wise flatten and before fully connected layer or Conv w/ 1x1 kernel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only alpha=0, max_value=None, threshold=0.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,117 +535,117 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2"/>
     </row>
